--- a/REGULAR/DSWD/CALANOG, ALMA P..xlsx
+++ b/REGULAR/DSWD/CALANOG, ALMA P..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="257">
   <si>
     <t>PERIOD</t>
   </si>
@@ -793,6 +793,18 @@
   </si>
   <si>
     <t>9/4-5/2023</t>
+  </si>
+  <si>
+    <t>10/5,9/2023</t>
+  </si>
+  <si>
+    <t>10/16-18/2023</t>
+  </si>
+  <si>
+    <t>11/28,30/2023</t>
+  </si>
+  <si>
+    <t>12/15,22,26,28/2023</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1650,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1681,7 +1693,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1745,7 +1757,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,7 +1817,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1871,7 +1883,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1934,7 +1946,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2044,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2091,7 +2103,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2156,7 +2168,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2211,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +2286,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2472,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +2538,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,7 +2596,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2650,7 +2662,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2706,7 +2718,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2781,7 +2793,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2824,7 +2836,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2890,7 +2902,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2946,7 +2958,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3044,7 +3056,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3107,7 +3119,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3173,7 +3185,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K353" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K357" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3551,12 +3563,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K353"/>
+  <dimension ref="A2:K357"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A336" activePane="bottomLeft"/>
       <selection activeCell="D12" sqref="D12"/>
-      <selection pane="bottomLeft" activeCell="I350" sqref="I350"/>
+      <selection pane="bottomLeft" activeCell="E350" sqref="E350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3719,7 +3731,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="12">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>47.044999999999931</v>
+        <v>46.794999999999931</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="str">
@@ -3729,7 +3741,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="12">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>138.5</v>
+        <v>133.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="18"/>
@@ -11375,13 +11387,15 @@
       <c r="B350" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C350" s="12"/>
+      <c r="C350" s="12">
+        <v>1.25</v>
+      </c>
       <c r="D350" s="37"/>
       <c r="E350" s="9"/>
       <c r="F350" s="18"/>
-      <c r="G350" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G350" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H350" s="37">
         <v>2</v>
@@ -11396,25 +11410,33 @@
       <c r="A351" s="38">
         <v>45200</v>
       </c>
-      <c r="B351" s="18"/>
-      <c r="C351" s="12"/>
+      <c r="B351" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C351" s="12">
+        <v>1.25</v>
+      </c>
       <c r="D351" s="37"/>
       <c r="E351" s="9"/>
       <c r="F351" s="18"/>
-      <c r="G351" s="12" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H351" s="37"/>
+      <c r="G351" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H351" s="37">
+        <v>2</v>
+      </c>
       <c r="I351" s="9"/>
       <c r="J351" s="11"/>
-      <c r="K351" s="18"/>
+      <c r="K351" s="18" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A352" s="38">
-        <v>45231</v>
-      </c>
-      <c r="B352" s="18"/>
+      <c r="A352" s="38"/>
+      <c r="B352" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="C352" s="12"/>
       <c r="D352" s="37"/>
       <c r="E352" s="9"/>
@@ -11423,16 +11445,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H352" s="37"/>
+      <c r="H352" s="37">
+        <v>1</v>
+      </c>
       <c r="I352" s="9"/>
       <c r="J352" s="11"/>
-      <c r="K352" s="18"/>
+      <c r="K352" s="44">
+        <v>45211</v>
+      </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="38">
-        <v>45261</v>
-      </c>
-      <c r="B353" s="18"/>
+      <c r="A353" s="38"/>
+      <c r="B353" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="C353" s="12"/>
       <c r="D353" s="37"/>
       <c r="E353" s="9"/>
@@ -11441,10 +11467,99 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H353" s="37"/>
+      <c r="H353" s="37">
+        <v>3</v>
+      </c>
       <c r="I353" s="9"/>
       <c r="J353" s="11"/>
-      <c r="K353" s="18"/>
+      <c r="K353" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A354" s="38"/>
+      <c r="B354" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C354" s="12"/>
+      <c r="D354" s="37"/>
+      <c r="E354" s="9"/>
+      <c r="F354" s="18"/>
+      <c r="G354" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H354" s="37">
+        <v>1</v>
+      </c>
+      <c r="I354" s="9"/>
+      <c r="J354" s="11"/>
+      <c r="K354" s="44">
+        <v>45230</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A355" s="38">
+        <v>45231</v>
+      </c>
+      <c r="B355" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C355" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="D355" s="37"/>
+      <c r="E355" s="9"/>
+      <c r="F355" s="18"/>
+      <c r="G355" s="12">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H355" s="37">
+        <v>2</v>
+      </c>
+      <c r="I355" s="9"/>
+      <c r="J355" s="11"/>
+      <c r="K355" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A356" s="38"/>
+      <c r="B356" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C356" s="12"/>
+      <c r="D356" s="37">
+        <v>4</v>
+      </c>
+      <c r="E356" s="9"/>
+      <c r="F356" s="18"/>
+      <c r="G356" s="12"/>
+      <c r="H356" s="37"/>
+      <c r="I356" s="9"/>
+      <c r="J356" s="11"/>
+      <c r="K356" s="18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" s="38">
+        <v>45261</v>
+      </c>
+      <c r="B357" s="18"/>
+      <c r="C357" s="12"/>
+      <c r="D357" s="37"/>
+      <c r="E357" s="9"/>
+      <c r="F357" s="18"/>
+      <c r="G357" s="12" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H357" s="37"/>
+      <c r="I357" s="9"/>
+      <c r="J357" s="11"/>
+      <c r="K357" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11618,7 +11733,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="46">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>185.54499999999993</v>
+        <v>180.04499999999993</v>
       </c>
       <c r="C7" s="35">
         <v>1</v>
